--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados6.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados6.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG65"/>
+  <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,145 +380,150 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>AMT_CREDIT_YEARS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>AMT_CREDIT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AMT_ANNUITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AMT_GOODS_PRICE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>NAME_TYPE_SUITE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>NAME_INCOME_TYPE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>NAME_EDUCATION_TYPE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>NAME_FAMILY_STATUS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>NAME_HOUSING_TYPE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>REGION_POPULATION_RELATIVE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DAYS_BIRTH</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DAYS_EMPLOYED</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>DAYS_REGISTRATION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DAYS_ID_PUBLISH</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>OWN_CAR_AGE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMP_PHONE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>FLAG_WORK_PHONE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FLAG_CONT_MOBILE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FLAG_PHONE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>FLAG_EMAIL</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>OCCUPATION_TYPE</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CNT_FAM_MEMBERS</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>REGION_RATING_CLIENT</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>WEEKDAY_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>HOUR_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>ORGANIZATION_TYPE</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>APARTMENTS_AVG</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>DAYS_LAST_PHONE_CHANGE</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>AMT_REQ_CREDIT_BUREAU</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>DEF_CNT_SOCIAL_CIRCLE</t>
         </is>
@@ -538,106 +543,109 @@
         <v>135000</v>
       </c>
       <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2">
         <v>247500</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12703.5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>247500</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.026392</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-11286</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>-746</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-108</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-3729</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>7</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4</v>
       </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>14</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>0.1433</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>-4</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>1</v>
       </c>
     </row>
@@ -655,65 +663,65 @@
         <v>157500</v>
       </c>
       <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3">
         <v>1571931</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>49356</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1435500</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.04622</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-15949</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-239</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-1146</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-4321</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -721,40 +729,43 @@
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>SUNDAY</t>
         </is>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>13</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.5351</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-2397</v>
       </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
       <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
         <v>0</v>
       </c>
     </row>
@@ -772,106 +783,109 @@
         <v>108000</v>
       </c>
       <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
         <v>912240</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>30276</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>787500</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Spouse, partner</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.018634</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-17850</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-2899</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-2880</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-1400</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3</v>
       </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>9</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Industry: type 3</t>
         </is>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.0701</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
       <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>3</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0</v>
       </c>
     </row>
@@ -889,106 +903,109 @@
         <v>184500</v>
       </c>
       <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>1078200</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>31522.5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>900000</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Spouse, partner</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.020246</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-10598</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-854</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-558</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-630</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>High skill tech staff</t>
         </is>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>4</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3</v>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>9</v>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Industry: type 2</t>
         </is>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.066</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-1823</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <v>0</v>
       </c>
     </row>
@@ -1006,101 +1023,104 @@
         <v>112500</v>
       </c>
       <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>1223010</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>51948</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1125000</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.004849</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-11487</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-997</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-4939</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-2531</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>7</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>3</v>
       </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>17</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.1354</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-732</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
       <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>0</v>
       </c>
     </row>
@@ -1118,106 +1138,109 @@
         <v>112500</v>
       </c>
       <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
         <v>117162</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>11718</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>103500</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.010966</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-9106</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-1031</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-9064</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-1739</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Sales staff</t>
         </is>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4</v>
       </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>16</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.0495</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>0</v>
       </c>
     </row>
@@ -1235,60 +1258,60 @@
         <v>112500</v>
       </c>
       <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
         <v>832500</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>24471</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>832500</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.028663</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-13765</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-1806</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-8001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-4701</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>7</v>
       </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
       <c r="T8">
         <v>1</v>
       </c>
@@ -1299,42 +1322,45 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>5</v>
       </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>10</v>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Transport: type 3</t>
         </is>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>0.0227</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-3333</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>3</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0</v>
       </c>
     </row>
@@ -1352,106 +1378,109 @@
         <v>135000</v>
       </c>
       <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
         <v>526491</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>32337</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>454500</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.008865999999999999</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-11741</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-273</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-209</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-3756</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>3</v>
       </c>
-      <c r="Z9">
-        <v>2</v>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>15</v>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.0577</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-2155</v>
       </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
       <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
         <v>0</v>
       </c>
     </row>
@@ -1469,60 +1498,60 @@
         <v>112500</v>
       </c>
       <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
         <v>180000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>180000</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.008865999999999999</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-10789</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-1167</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-25</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-336</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>6</v>
       </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
       <c r="T10">
         <v>1</v>
       </c>
@@ -1533,42 +1562,45 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>4</v>
       </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>11</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.0041</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-1302</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
         <v>0</v>
       </c>
     </row>
@@ -1586,60 +1618,60 @@
         <v>90000</v>
       </c>
       <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11">
         <v>203760</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11826</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>180000</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.010643</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-13822</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-6947</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-949</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-3505</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>7</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
       <c r="T11">
         <v>1</v>
       </c>
@@ -1650,42 +1682,45 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>4</v>
       </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>11</v>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>Kindergarten</t>
         </is>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.0165</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-914</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
       <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
         <v>0</v>
       </c>
     </row>
@@ -1703,106 +1738,109 @@
         <v>135000</v>
       </c>
       <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12">
         <v>508495.5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>24592.5</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>454500</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Lower secondary</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.008865999999999999</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-16227</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-2251</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-6186</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-4184</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>6</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>5</v>
       </c>
-      <c r="Z12">
-        <v>2</v>
-      </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>SUNDAY</t>
         </is>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>12</v>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>0.0278</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-1687</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>3</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>0</v>
       </c>
     </row>
@@ -1820,106 +1858,109 @@
         <v>126000</v>
       </c>
       <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>900000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>32017.5</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>900000</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.018209</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-10629</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-409</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-949</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-3254</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>Secretaries</t>
         </is>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>4</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>3</v>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>11</v>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>Kindergarten</t>
         </is>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.1237</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-2084</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
       <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <v>2</v>
       </c>
     </row>
@@ -1937,60 +1978,60 @@
         <v>202500</v>
       </c>
       <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
         <v>755190</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>36328.5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>675000</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.007120000000000001</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-12831</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-2098</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-6448</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-4380</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>7</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
       <c r="T14">
         <v>1</v>
       </c>
@@ -1998,45 +2039,48 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>Accountants</t>
         </is>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3</v>
       </c>
-      <c r="Z14">
-        <v>2</v>
-      </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>9</v>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.09279999999999999</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-408</v>
       </c>
-      <c r="AF14">
-        <v>2</v>
-      </c>
       <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
         <v>0</v>
       </c>
     </row>
@@ -2054,106 +2098,109 @@
         <v>157500</v>
       </c>
       <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
         <v>360000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>24057</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>360000</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.026392</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-14842</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-5189</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-4124</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-4230</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>8</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>4</v>
       </c>
-      <c r="Z15">
-        <v>2</v>
-      </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>13</v>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.0021</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-1700</v>
       </c>
-      <c r="AF15">
-        <v>2</v>
-      </c>
       <c r="AG15">
+        <v>2</v>
+      </c>
+      <c r="AH15">
         <v>0</v>
       </c>
     </row>
@@ -2171,106 +2218,109 @@
         <v>157500</v>
       </c>
       <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
         <v>679500</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>67891.5</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>679500</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.003069</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-13222</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-4256</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-994</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-1101</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>8</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>Accountants</t>
         </is>
-      </c>
-      <c r="Y16">
-        <v>3</v>
       </c>
       <c r="Z16">
         <v>3</v>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AA16">
+        <v>3</v>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>11</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Telecom</t>
         </is>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.0722</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-1040</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
       <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <v>0</v>
       </c>
     </row>
@@ -2288,106 +2338,109 @@
         <v>173250</v>
       </c>
       <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
         <v>1236816</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>36288</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1080000</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.031329</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-14505</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-853</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-7290</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-4884</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>6</v>
       </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>4</v>
       </c>
-      <c r="Z17">
-        <v>2</v>
-      </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>13</v>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>Business Entity Type 2</t>
         </is>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.0247</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-1746</v>
       </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
       <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
         <v>2</v>
       </c>
     </row>
@@ -2405,106 +2458,109 @@
         <v>90000</v>
       </c>
       <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="F18">
         <v>312840</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>21037.5</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>247500</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.009549</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-14765</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-592</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-4931</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-5171</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>7</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>Medicine staff</t>
         </is>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3</v>
       </c>
-      <c r="Z18">
-        <v>2</v>
-      </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>17</v>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.2227</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-495</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>4</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0</v>
       </c>
     </row>
@@ -2522,106 +2578,109 @@
         <v>157500</v>
       </c>
       <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
         <v>693000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>20389.5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>693000</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.026392</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-12785</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-3308</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-2647</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-3995</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>6</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>3</v>
       </c>
-      <c r="Z19">
-        <v>2</v>
-      </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>11</v>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.1485</v>
       </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
       <c r="AF19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
         <v>0</v>
       </c>
     </row>
@@ -2639,106 +2698,109 @@
         <v>112500</v>
       </c>
       <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
         <v>597339</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>33484.5</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>553500</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Children</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.031329</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-18227</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-3466</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-2809</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-1775</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>6</v>
       </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="inlineStr">
         <is>
           <t>Sales staff</t>
         </is>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>3</v>
       </c>
-      <c r="Z20">
-        <v>2</v>
-      </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>12</v>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>Trade: type 7</t>
         </is>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.06909999999999999</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-1709</v>
       </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
       <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
         <v>0</v>
       </c>
     </row>
@@ -2756,106 +2818,109 @@
         <v>202500</v>
       </c>
       <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
         <v>254700</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>25321.5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>225000</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.025164</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-8189</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-480</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-314</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-872</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>7</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" t="inlineStr">
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>3</v>
       </c>
-      <c r="Z21">
-        <v>2</v>
-      </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>12</v>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.0247</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-613</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>3</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0</v>
       </c>
     </row>
@@ -2873,106 +2938,109 @@
         <v>108000</v>
       </c>
       <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
         <v>900000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>23872.5</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>900000</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.015221</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-12303</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-1145</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-1556</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-640</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>6</v>
       </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="inlineStr">
         <is>
           <t>Managers</t>
         </is>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>4</v>
       </c>
-      <c r="Z22">
-        <v>2</v>
-      </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>14</v>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.046</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-562</v>
       </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
       <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <v>0</v>
       </c>
     </row>
@@ -2990,101 +3058,104 @@
         <v>180000</v>
       </c>
       <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
         <v>225000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>24003</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>225000</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.04622</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-11802</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-186</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-663</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-2107</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>5</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>4</v>
       </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>16</v>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.0619</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-154</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>4</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0</v>
       </c>
     </row>
@@ -3102,60 +3173,60 @@
         <v>112500</v>
       </c>
       <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
         <v>211500</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>10417.5</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>211500</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Spouse, partner</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.025164</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-14887</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-7362</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-9034</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-3988</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>8</v>
       </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
       <c r="T24">
         <v>1</v>
       </c>
@@ -3166,42 +3237,45 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>4</v>
       </c>
-      <c r="Z24">
-        <v>2</v>
-      </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AA24">
+        <v>2</v>
+      </c>
+      <c r="AB24" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>15</v>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.1134</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-1061</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>3</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>2</v>
       </c>
     </row>
@@ -3219,106 +3293,109 @@
         <v>135000</v>
       </c>
       <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25">
         <v>720000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>28552.5</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>720000</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Co-op apartment</t>
         </is>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.006007999999999999</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-12810</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-2840</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-31</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-5009</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>6</v>
       </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>4</v>
       </c>
-      <c r="Z25">
-        <v>2</v>
-      </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>14</v>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>Bank</t>
         </is>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.1649</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
       <c r="AF25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
         <v>0</v>
       </c>
     </row>
@@ -3336,106 +3413,109 @@
         <v>202500</v>
       </c>
       <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
         <v>1256400</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>36864</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>900000</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Spouse, partner</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.02461</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-12656</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-405</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-3313</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-4045</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>9</v>
       </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3</v>
       </c>
-      <c r="Z26">
-        <v>2</v>
-      </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>17</v>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.066</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-892</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>6</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0</v>
       </c>
     </row>
@@ -3453,106 +3533,109 @@
         <v>202500</v>
       </c>
       <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
         <v>808650</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>23773.5</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>675000</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.031329</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-15016</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-4131</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-2457</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-1100</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>7</v>
       </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>5</v>
       </c>
-      <c r="Z27">
-        <v>2</v>
-      </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>14</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>Police</t>
         </is>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.008200000000000001</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-2210</v>
       </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
       <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
         <v>0</v>
       </c>
     </row>
@@ -3570,106 +3653,109 @@
         <v>135000</v>
       </c>
       <c r="E28">
+        <v>45</v>
+      </c>
+      <c r="F28">
         <v>760225.5</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>30150</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>679500</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.006305</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-11285</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-990</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-971</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-855</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>9</v>
       </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>HR staff</t>
         </is>
-      </c>
-      <c r="Y28">
-        <v>3</v>
       </c>
       <c r="Z28">
         <v>3</v>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AA28">
+        <v>3</v>
+      </c>
+      <c r="AB28" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>5</v>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.1144</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-399</v>
       </c>
-      <c r="AF28">
-        <v>2</v>
-      </c>
       <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28">
         <v>0</v>
       </c>
     </row>
@@ -3687,106 +3773,109 @@
         <v>180000</v>
       </c>
       <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
         <v>1157670</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>112909.5</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1125000</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.008068000000000001</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-10414</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-1188</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-4880</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-1169</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>9</v>
       </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
-      </c>
-      <c r="Y29">
-        <v>3</v>
       </c>
       <c r="Z29">
         <v>3</v>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AA29">
+        <v>3</v>
+      </c>
+      <c r="AB29" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>5</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.0361</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-713</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>3</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0</v>
       </c>
     </row>
@@ -3804,60 +3893,60 @@
         <v>108000</v>
       </c>
       <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30">
         <v>679500</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>19998</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>679500</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.025164</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-15089</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-98</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-923</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-144</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>9</v>
       </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
       <c r="T30">
         <v>1</v>
       </c>
@@ -3865,45 +3954,48 @@
         <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>3</v>
       </c>
-      <c r="Z30">
-        <v>2</v>
-      </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>12</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>Business Entity Type 2</t>
         </is>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.0278</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-2934</v>
       </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
       <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
         <v>0</v>
       </c>
     </row>
@@ -3921,106 +4013,109 @@
         <v>114300</v>
       </c>
       <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
         <v>640080</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>31261.5</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>450000</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>Rented apartment</t>
         </is>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.010006</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-12592</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-216</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-1142</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-1104</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>7</v>
       </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="inlineStr">
         <is>
           <t>Cleaning staff</t>
         </is>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>5</v>
       </c>
-      <c r="Z31">
-        <v>2</v>
-      </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>12</v>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>Trade: type 2</t>
         </is>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.0165</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-327</v>
       </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
       <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
         <v>0</v>
       </c>
     </row>
@@ -4038,60 +4133,60 @@
         <v>112500</v>
       </c>
       <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
         <v>135000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>9526.5</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>135000</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Spouse, partner</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>Municipal apartment</t>
         </is>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.018029</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-12516</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-437</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-6443</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-4523</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>8</v>
       </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
       <c r="T32">
         <v>1</v>
       </c>
@@ -4102,37 +4197,40 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>3</v>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AA32">
+        <v>3</v>
+      </c>
+      <c r="AB32" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>7</v>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.1577</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-1791</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>3</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0</v>
       </c>
     </row>
@@ -4150,60 +4248,60 @@
         <v>180000</v>
       </c>
       <c r="E33">
+        <v>40</v>
+      </c>
+      <c r="F33">
         <v>247500</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>12375</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>247500</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.026392</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-12682</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-402</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-5174</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-1961</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>5</v>
       </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
       <c r="T33">
         <v>1</v>
       </c>
@@ -4216,40 +4314,43 @@
       <c r="W33">
         <v>1</v>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>5</v>
       </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>14</v>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>Industry: type 9</t>
         </is>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.032</v>
       </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
       <c r="AF33">
         <v>0</v>
       </c>
       <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
         <v>0</v>
       </c>
     </row>
@@ -4267,106 +4368,109 @@
         <v>180000</v>
       </c>
       <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34">
         <v>523597.5</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>25317</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>468000</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.018634</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-14594</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-1181</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-847</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-1211</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>7</v>
       </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>3</v>
       </c>
-      <c r="Z34">
-        <v>2</v>
-      </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AA34">
+        <v>2</v>
+      </c>
+      <c r="AB34" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>15</v>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.1021</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-737</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>3</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0</v>
       </c>
     </row>
@@ -4384,106 +4488,109 @@
         <v>157500</v>
       </c>
       <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
         <v>331834.5</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>20295</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>252000</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.018634</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>-13850</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>-1389</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>-7774</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>-4407</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>8</v>
       </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>3</v>
       </c>
-      <c r="Z35">
-        <v>2</v>
-      </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>14</v>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AD35" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.09760000000000001</v>
       </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
       <c r="AF35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
         <v>0</v>
       </c>
     </row>
@@ -4501,106 +4608,109 @@
         <v>180000</v>
       </c>
       <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
         <v>312768</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>24331.5</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>270000</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.014464</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>-15623</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>-1078</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>-7323</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>-2966</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>7</v>
       </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>3</v>
       </c>
-      <c r="Z36">
-        <v>2</v>
-      </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>5</v>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AD36" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>0.08740000000000001</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>-1326</v>
       </c>
-      <c r="AF36">
-        <v>2</v>
-      </c>
       <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36">
         <v>0</v>
       </c>
     </row>
@@ -4618,106 +4728,109 @@
         <v>202500</v>
       </c>
       <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
         <v>297130.5</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>23121</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>256500</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.010966</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>-17819</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>-8948</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>-6948</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>-1354</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>6</v>
       </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="inlineStr">
         <is>
           <t>Managers</t>
         </is>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>3</v>
       </c>
-      <c r="Z37">
-        <v>2</v>
-      </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>15</v>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AD37" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.3113</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>-645</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>6</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0</v>
       </c>
     </row>
@@ -4735,101 +4848,104 @@
         <v>202500</v>
       </c>
       <c r="E38">
+        <v>40</v>
+      </c>
+      <c r="F38">
         <v>608076</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>29574</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>427500</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.072508</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>-14208</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>-2696</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>-7952</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>-5997</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>8</v>
       </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
         <v>3</v>
       </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>9</v>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.132</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>-625</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>4</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0</v>
       </c>
     </row>
@@ -4847,101 +4963,104 @@
         <v>157500</v>
       </c>
       <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
         <v>675000</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>32472</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>675000</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.04622</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>-10852</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>-359</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>-703</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>-310</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>8</v>
       </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
-      <c r="Y39">
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
         <v>4</v>
       </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>14</v>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AD39" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.0371</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>-81</v>
       </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
       <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
         <v>0</v>
       </c>
     </row>
@@ -4959,55 +5078,55 @@
         <v>195750</v>
       </c>
       <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="F40">
         <v>225000</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>14764.5</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>225000</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.072508</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>-18015</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>-2881</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>-4068</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>-1543</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>9</v>
       </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
       <c r="T40">
         <v>1</v>
       </c>
@@ -5015,45 +5134,48 @@
         <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>3</v>
       </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>9</v>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AD40" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>0.1784</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>-584</v>
       </c>
-      <c r="AF40">
-        <v>2</v>
-      </c>
       <c r="AG40">
+        <v>2</v>
+      </c>
+      <c r="AH40">
         <v>0</v>
       </c>
     </row>
@@ -5071,60 +5193,60 @@
         <v>117000</v>
       </c>
       <c r="E41">
+        <v>25</v>
+      </c>
+      <c r="F41">
         <v>450000</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>18328.5</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>450000</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.02461</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>-12571</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>-1458</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>-3037</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>-4079</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>7</v>
       </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
       <c r="T41">
         <v>1</v>
       </c>
@@ -5132,40 +5254,43 @@
         <v>1</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
-      <c r="Y41">
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
         <v>3</v>
       </c>
-      <c r="Z41">
-        <v>2</v>
-      </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>17</v>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>0.1247</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>-2586</v>
       </c>
-      <c r="AF41">
-        <v>2</v>
-      </c>
       <c r="AG41">
+        <v>2</v>
+      </c>
+      <c r="AH41">
         <v>2</v>
       </c>
     </row>
@@ -5183,106 +5308,109 @@
         <v>180000</v>
       </c>
       <c r="E42">
+        <v>35</v>
+      </c>
+      <c r="F42">
         <v>540000</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>27000</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>540000</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.02461</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>-20713</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>-661</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>-9249</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>-4241</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>9</v>
       </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>4</v>
       </c>
-      <c r="Z42">
-        <v>2</v>
-      </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>15</v>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>0.1454</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>-269</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>8</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>0</v>
       </c>
     </row>
@@ -5300,106 +5428,109 @@
         <v>202500</v>
       </c>
       <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43">
         <v>877500</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>42214.5</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>877500</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.00963</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>-15770</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>-4296</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>-4369</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>-4673</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>8</v>
       </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
         <v>1</v>
       </c>
       <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>3</v>
       </c>
-      <c r="Z43">
-        <v>2</v>
-      </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>16</v>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AD43" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>0.0825</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>-2148</v>
       </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
       <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43">
         <v>0</v>
       </c>
     </row>
@@ -5417,101 +5548,104 @@
         <v>157500</v>
       </c>
       <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
         <v>269550</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>21609</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>225000</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.031329</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>-11797</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>-3398</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>-5764</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>-3384</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>6</v>
       </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="Y44">
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
         <v>3</v>
       </c>
-      <c r="Z44">
-        <v>2</v>
-      </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AA44">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="inlineStr">
         <is>
           <t>THURSDAY</t>
         </is>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>7</v>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AD44" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>0.0722</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>-1468</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>5</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>0</v>
       </c>
     </row>
@@ -5529,106 +5663,109 @@
         <v>148500</v>
       </c>
       <c r="E45">
+        <v>40</v>
+      </c>
+      <c r="F45">
         <v>286704</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>22648.5</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>247500</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Spouse, partner</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.072508</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>-8872</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>-1199</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>-8831</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>-1019</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>8</v>
       </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
         <v>1</v>
       </c>
       <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="inlineStr">
         <is>
           <t>High skill tech staff</t>
         </is>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>3</v>
       </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>15</v>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AD45" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>0.1289</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>-936</v>
       </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
       <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
         <v>0</v>
       </c>
     </row>
@@ -5646,60 +5783,60 @@
         <v>121500</v>
       </c>
       <c r="E46">
+        <v>45</v>
+      </c>
+      <c r="F46">
         <v>247500</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>12375</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>247500</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.030755</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>-14441</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>-5125</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>-3441</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>-24</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>5</v>
       </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
       <c r="T46">
         <v>1</v>
       </c>
@@ -5710,42 +5847,45 @@
         <v>1</v>
       </c>
       <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>4</v>
       </c>
-      <c r="Z46">
-        <v>2</v>
-      </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AB46" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>11</v>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AD46" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>0.0247</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>-1636</v>
       </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
       <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
         <v>0</v>
       </c>
     </row>
@@ -5763,106 +5903,109 @@
         <v>135000</v>
       </c>
       <c r="E47">
+        <v>25</v>
+      </c>
+      <c r="F47">
         <v>1113840</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>44302.5</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>900000</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.006629</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>-18130</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>-5134</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>-4007</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>-1650</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>9</v>
       </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>3</v>
       </c>
-      <c r="Z47">
-        <v>2</v>
-      </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>10</v>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AD47" t="inlineStr">
         <is>
           <t>Housing</t>
         </is>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>0.0129</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>-2078</v>
       </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
       <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
         <v>0</v>
       </c>
     </row>
@@ -5880,101 +6023,104 @@
         <v>180000</v>
       </c>
       <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
         <v>497520</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>32391</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>450000</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.04622</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>-12488</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>-1123</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>-3493</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>-3495</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>9</v>
       </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48">
         <v>1</v>
       </c>
       <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
         <v>4</v>
       </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="inlineStr">
         <is>
           <t>SUNDAY</t>
         </is>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>15</v>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>0.5175</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>-729</v>
       </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
       <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
         <v>0</v>
       </c>
     </row>
@@ -5992,106 +6138,109 @@
         <v>135000</v>
       </c>
       <c r="E49">
+        <v>35</v>
+      </c>
+      <c r="F49">
         <v>1042560</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>34587</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>900000</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.025164</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>-15807</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>-699</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>-4947</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>-4681</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>6</v>
       </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="inlineStr">
         <is>
           <t>Managers</t>
         </is>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>3</v>
       </c>
-      <c r="Z49">
-        <v>2</v>
-      </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>9</v>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>0.2619</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>-69</v>
       </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
       <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
         <v>0</v>
       </c>
     </row>
@@ -6109,101 +6258,104 @@
         <v>157500</v>
       </c>
       <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
         <v>161730</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>13095</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>135000</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.016612</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>-10891</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>-1024</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>-106</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>-1589</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>8</v>
       </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
-      <c r="Y50">
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
         <v>3</v>
       </c>
-      <c r="Z50">
-        <v>2</v>
-      </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>13</v>
       </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AD50" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>0.368</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>-1658</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>3</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>4</v>
       </c>
     </row>
@@ -6221,106 +6373,109 @@
         <v>202500</v>
       </c>
       <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51">
         <v>584766</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>27225</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>472500</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Incomplete higher</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>0.031329</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>-12910</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>-3009</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>-1421</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>-5175</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>9</v>
       </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51">
         <v>1</v>
       </c>
       <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="inlineStr">
         <is>
           <t>Realty agents</t>
         </is>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>4</v>
       </c>
-      <c r="Z51">
-        <v>2</v>
-      </c>
-      <c r="AA51" t="inlineStr">
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>8</v>
       </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AD51" t="inlineStr">
         <is>
           <t>Realtor</t>
         </is>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>0.0491</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>-1143</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>4</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>0</v>
       </c>
     </row>
@@ -6338,106 +6493,109 @@
         <v>193500</v>
       </c>
       <c r="E52">
+        <v>25</v>
+      </c>
+      <c r="F52">
         <v>2205000</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>60637.5</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>2205000</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>0.028663</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>-15164</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>-7681</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>-8841</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>-4374</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>9</v>
       </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <v>1</v>
       </c>
       <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>4</v>
       </c>
-      <c r="Z52">
-        <v>2</v>
-      </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AA52">
+        <v>2</v>
+      </c>
+      <c r="AB52" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>10</v>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AD52" t="inlineStr">
         <is>
           <t>Bank</t>
         </is>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>0.1572</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>-978</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>3</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>2</v>
       </c>
     </row>
@@ -6455,106 +6613,109 @@
         <v>171000</v>
       </c>
       <c r="E53">
+        <v>35</v>
+      </c>
+      <c r="F53">
         <v>327024</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>18904.5</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>270000</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>With parents</t>
         </is>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>0.004849</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>-15038</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>-1018</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>-1227</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>-4105</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>8</v>
       </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
       <c r="T53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
-      <c r="X53" t="inlineStr">
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="inlineStr">
         <is>
           <t>Accountants</t>
         </is>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>3</v>
       </c>
-      <c r="Z53">
-        <v>2</v>
-      </c>
-      <c r="AA53" t="inlineStr">
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53" t="inlineStr">
         <is>
           <t>SUNDAY</t>
         </is>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>12</v>
       </c>
-      <c r="AC53" t="inlineStr">
+      <c r="AD53" t="inlineStr">
         <is>
           <t>Kindergarten</t>
         </is>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>0.0804</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>-1641</v>
       </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
       <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
         <v>0</v>
       </c>
     </row>
@@ -6572,60 +6733,60 @@
         <v>180000</v>
       </c>
       <c r="E54">
+        <v>15</v>
+      </c>
+      <c r="F54">
         <v>225000</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>22050</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>225000</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>0.072508</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>-14467</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>-1511</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>-8574</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>-5785</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>6</v>
       </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
       <c r="T54">
         <v>1</v>
       </c>
@@ -6636,37 +6797,40 @@
         <v>1</v>
       </c>
       <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
         <v>3</v>
       </c>
-      <c r="Z54">
-        <v>1</v>
-      </c>
-      <c r="AA54" t="inlineStr">
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>9</v>
       </c>
-      <c r="AC54" t="inlineStr">
+      <c r="AD54" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>0.2862</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>-3205</v>
       </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
       <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
         <v>0</v>
       </c>
     </row>
@@ -6684,106 +6848,109 @@
         <v>157500</v>
       </c>
       <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
         <v>474048</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>17568</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>360000</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>Civil marriage</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>0.030755</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>-11393</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>-1687</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>-2008</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>-4046</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>7</v>
       </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
-      <c r="X55" t="inlineStr">
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="inlineStr">
         <is>
           <t>Managers</t>
         </is>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>4</v>
       </c>
-      <c r="Z55">
-        <v>2</v>
-      </c>
-      <c r="AA55" t="inlineStr">
+      <c r="AA55">
+        <v>2</v>
+      </c>
+      <c r="AB55" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>12</v>
       </c>
-      <c r="AC55" t="inlineStr">
+      <c r="AD55" t="inlineStr">
         <is>
           <t>Kindergarten</t>
         </is>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>0.0619</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>-320</v>
       </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
       <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
         <v>0</v>
       </c>
     </row>
@@ -6801,65 +6968,65 @@
         <v>157500</v>
       </c>
       <c r="E56">
+        <v>25</v>
+      </c>
+      <c r="F56">
         <v>550980</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>43659</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>450000</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>0.004849</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>-13565</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>-1154</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>-6025</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>-4316</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>8</v>
       </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
       <c r="T56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56">
         <v>1</v>
@@ -6867,40 +7034,43 @@
       <c r="W56">
         <v>1</v>
       </c>
-      <c r="X56" t="inlineStr">
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="inlineStr">
         <is>
           <t>Cooking staff</t>
         </is>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>5</v>
       </c>
-      <c r="Z56">
-        <v>2</v>
-      </c>
-      <c r="AA56" t="inlineStr">
+      <c r="AA56">
+        <v>2</v>
+      </c>
+      <c r="AB56" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>15</v>
       </c>
-      <c r="AC56" t="inlineStr">
+      <c r="AD56" t="inlineStr">
         <is>
           <t>Business Entity Type 3</t>
         </is>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>0.0722</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>-251</v>
       </c>
-      <c r="AF56">
-        <v>2</v>
-      </c>
       <c r="AG56">
+        <v>2</v>
+      </c>
+      <c r="AH56">
         <v>0</v>
       </c>
     </row>
@@ -6918,106 +7088,109 @@
         <v>157500</v>
       </c>
       <c r="E57">
+        <v>45</v>
+      </c>
+      <c r="F57">
         <v>1350000</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>39474</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>1350000</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>0.028663</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>-12979</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>-2872</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>-6605</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>-2035</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>9</v>
       </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
       <c r="T57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>1</v>
       </c>
       <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>4</v>
       </c>
-      <c r="Z57">
-        <v>2</v>
-      </c>
-      <c r="AA57" t="inlineStr">
+      <c r="AA57">
+        <v>2</v>
+      </c>
+      <c r="AB57" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>7</v>
       </c>
-      <c r="AC57" t="inlineStr">
+      <c r="AD57" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>0.0722</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>-364</v>
       </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
       <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
         <v>0</v>
       </c>
     </row>
@@ -7035,106 +7208,109 @@
         <v>135000</v>
       </c>
       <c r="E58">
+        <v>35</v>
+      </c>
+      <c r="F58">
         <v>390384</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>44280</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>351000</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>0.020246</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>-11250</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>-3304</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>-1752</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>-3467</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>7</v>
       </c>
-      <c r="S58">
-        <v>1</v>
-      </c>
       <c r="T58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58">
-        <v>1</v>
-      </c>
-      <c r="X58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>4</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>3</v>
       </c>
-      <c r="AA58" t="inlineStr">
+      <c r="AB58" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB58">
+      <c r="AC58">
         <v>9</v>
       </c>
-      <c r="AC58" t="inlineStr">
+      <c r="AD58" t="inlineStr">
         <is>
           <t>Kindergarten</t>
         </is>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <v>0.066</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <v>-202</v>
       </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
       <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
         <v>0</v>
       </c>
     </row>
@@ -7152,106 +7328,109 @@
         <v>121500</v>
       </c>
       <c r="E59">
+        <v>45</v>
+      </c>
+      <c r="F59">
         <v>203760</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>20281.5</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>180000</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>0.015221</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>-12854</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>-5413</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>-2067</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>-3887</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>8</v>
       </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
       <c r="T59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59">
         <v>1</v>
       </c>
       <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>4</v>
       </c>
-      <c r="Z59">
-        <v>2</v>
-      </c>
-      <c r="AA59" t="inlineStr">
+      <c r="AA59">
+        <v>2</v>
+      </c>
+      <c r="AB59" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB59">
+      <c r="AC59">
         <v>10</v>
       </c>
-      <c r="AC59" t="inlineStr">
+      <c r="AD59" t="inlineStr">
         <is>
           <t>Police</t>
         </is>
       </c>
-      <c r="AD59">
+      <c r="AE59">
         <v>0.1216</v>
       </c>
-      <c r="AE59">
+      <c r="AF59">
         <v>-1497</v>
       </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
       <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
         <v>0</v>
       </c>
     </row>
@@ -7269,60 +7448,60 @@
         <v>202500</v>
       </c>
       <c r="E60">
+        <v>50</v>
+      </c>
+      <c r="F60">
         <v>180000</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>9000</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>180000</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>Municipal apartment</t>
         </is>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>0.04622</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>-8864</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>-1679</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>-8864</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>-1526</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>5</v>
       </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
       <c r="T60">
         <v>1</v>
       </c>
@@ -7333,42 +7512,45 @@
         <v>1</v>
       </c>
       <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>3</v>
       </c>
-      <c r="Z60">
-        <v>1</v>
-      </c>
-      <c r="AA60" t="inlineStr">
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="inlineStr">
         <is>
           <t>FRIDAY</t>
         </is>
       </c>
-      <c r="AB60">
+      <c r="AC60">
         <v>16</v>
       </c>
-      <c r="AC60" t="inlineStr">
+      <c r="AD60" t="inlineStr">
         <is>
           <t>Industry: type 2</t>
         </is>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <v>0.1113</v>
       </c>
-      <c r="AE60">
+      <c r="AF60">
         <v>-365</v>
       </c>
-      <c r="AF60">
-        <v>2</v>
-      </c>
       <c r="AG60">
+        <v>2</v>
+      </c>
+      <c r="AH60">
         <v>0</v>
       </c>
     </row>
@@ -7386,101 +7568,104 @@
         <v>202500</v>
       </c>
       <c r="E61">
+        <v>45</v>
+      </c>
+      <c r="F61">
         <v>1125000</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>44748</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>1125000</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>Municipal apartment</t>
         </is>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>0.026392</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>-16333</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>-967</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>-2469</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>-4084</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>6</v>
       </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
       <c r="T61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
-      <c r="Y61">
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
         <v>4</v>
       </c>
-      <c r="Z61">
-        <v>2</v>
-      </c>
-      <c r="AA61" t="inlineStr">
+      <c r="AA61">
+        <v>2</v>
+      </c>
+      <c r="AB61" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>10</v>
       </c>
-      <c r="AC61" t="inlineStr">
+      <c r="AD61" t="inlineStr">
         <is>
           <t>Self-employed</t>
         </is>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>0.0804</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>-1978</v>
       </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
       <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
         <v>0</v>
       </c>
     </row>
@@ -7498,101 +7683,104 @@
         <v>157500</v>
       </c>
       <c r="E62">
+        <v>15</v>
+      </c>
+      <c r="F62">
         <v>473760</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>49878</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>450000</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Commercial associate</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>0.006007999999999999</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>-11363</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>-2023</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>-5132</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>-2559</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>7</v>
       </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
       <c r="T62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62">
         <v>1</v>
       </c>
       <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
         <v>3</v>
       </c>
-      <c r="Z62">
-        <v>2</v>
-      </c>
-      <c r="AA62" t="inlineStr">
+      <c r="AA62">
+        <v>2</v>
+      </c>
+      <c r="AB62" t="inlineStr">
         <is>
           <t>SATURDAY</t>
         </is>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>12</v>
       </c>
-      <c r="AC62" t="inlineStr">
+      <c r="AD62" t="inlineStr">
         <is>
           <t>Medicine</t>
         </is>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>0.0722</v>
       </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
       <c r="AF62">
         <v>0</v>
       </c>
       <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
         <v>0</v>
       </c>
     </row>
@@ -7610,101 +7798,104 @@
         <v>180000</v>
       </c>
       <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
         <v>753840</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>20016</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>540000</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>State servant</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>Higher education</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>0.008865999999999999</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>-14030</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>-2217</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>-1109</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>-1729</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>8</v>
       </c>
-      <c r="S63">
-        <v>1</v>
-      </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
-      <c r="X63" t="inlineStr">
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="inlineStr">
         <is>
           <t>Core staff</t>
         </is>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>3</v>
       </c>
-      <c r="Z63">
-        <v>2</v>
-      </c>
-      <c r="AA63" t="inlineStr">
+      <c r="AA63">
+        <v>2</v>
+      </c>
+      <c r="AB63" t="inlineStr">
         <is>
           <t>MONDAY</t>
         </is>
       </c>
-      <c r="AB63">
+      <c r="AC63">
         <v>16</v>
       </c>
-      <c r="AC63" t="inlineStr">
+      <c r="AD63" t="inlineStr">
         <is>
           <t>Government</t>
         </is>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>0.2845</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>-461</v>
       </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
       <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
         <v>0</v>
       </c>
     </row>
@@ -7722,60 +7913,60 @@
         <v>180000</v>
       </c>
       <c r="E64">
+        <v>45</v>
+      </c>
+      <c r="F64">
         <v>148500</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>17752.5</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>148500</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>Municipal apartment</t>
         </is>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>0.015221</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>-14989</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>-728</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>-1239</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>-5191</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>7</v>
       </c>
-      <c r="S64">
-        <v>1</v>
-      </c>
       <c r="T64">
         <v>1</v>
       </c>
@@ -7783,45 +7974,48 @@
         <v>1</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
-      <c r="X64" t="inlineStr">
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="inlineStr">
         <is>
           <t>Drivers</t>
         </is>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>4</v>
       </c>
-      <c r="Z64">
-        <v>2</v>
-      </c>
-      <c r="AA64" t="inlineStr">
+      <c r="AA64">
+        <v>2</v>
+      </c>
+      <c r="AB64" t="inlineStr">
         <is>
           <t>WEDNESDAY</t>
         </is>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>12</v>
       </c>
-      <c r="AC64" t="inlineStr">
+      <c r="AD64" t="inlineStr">
         <is>
           <t>Trade: type 7</t>
         </is>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <v>0.0196</v>
       </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
       <c r="AF64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG64">
+        <v>2</v>
+      </c>
+      <c r="AH64">
         <v>0</v>
       </c>
     </row>
@@ -7839,106 +8033,109 @@
         <v>121500</v>
       </c>
       <c r="E65">
+        <v>25</v>
+      </c>
+      <c r="F65">
         <v>1078200</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>31653</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>900000</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Unaccompanied</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Working</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>Secondary / secondary special</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>Married</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>House / apartment</t>
         </is>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>0.006296</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>-13649</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>-5052</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>-3246</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>-4340</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>7</v>
       </c>
-      <c r="S65">
-        <v>1</v>
-      </c>
       <c r="T65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
-      <c r="X65" t="inlineStr">
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="inlineStr">
         <is>
           <t>Laborers</t>
         </is>
-      </c>
-      <c r="Y65">
-        <v>3</v>
       </c>
       <c r="Z65">
         <v>3</v>
       </c>
-      <c r="AA65" t="inlineStr">
+      <c r="AA65">
+        <v>3</v>
+      </c>
+      <c r="AB65" t="inlineStr">
         <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>15</v>
       </c>
-      <c r="AC65" t="inlineStr">
+      <c r="AD65" t="inlineStr">
         <is>
           <t>Industry: type 11</t>
         </is>
       </c>
-      <c r="AD65">
+      <c r="AE65">
         <v>0.0825</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <v>-485</v>
       </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
       <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
         <v>0</v>
       </c>
     </row>

--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados6.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados6.xlsx
@@ -591,10 +591,10 @@
         <v>0.04622</v>
       </c>
       <c r="P2">
-        <v>-15949</v>
+        <v>43</v>
       </c>
       <c r="Q2">
-        <v>-239</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>-1146</v>
@@ -714,10 +714,10 @@
         <v>0.018209</v>
       </c>
       <c r="P3">
-        <v>-10629</v>
+        <v>29</v>
       </c>
       <c r="Q3">
-        <v>-409</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>-949</v>
@@ -837,10 +837,10 @@
         <v>0.028663</v>
       </c>
       <c r="P4">
-        <v>-15164</v>
+        <v>41</v>
       </c>
       <c r="Q4">
-        <v>-7681</v>
+        <v>21</v>
       </c>
       <c r="R4">
         <v>-8841</v>
@@ -960,10 +960,10 @@
         <v>0.028663</v>
       </c>
       <c r="P5">
-        <v>-12979</v>
+        <v>35</v>
       </c>
       <c r="Q5">
-        <v>-2872</v>
+        <v>7</v>
       </c>
       <c r="R5">
         <v>-6605</v>
@@ -1078,10 +1078,10 @@
         <v>0.008865999999999999</v>
       </c>
       <c r="P6">
-        <v>-14030</v>
+        <v>38</v>
       </c>
       <c r="Q6">
-        <v>-2217</v>
+        <v>6</v>
       </c>
       <c r="R6">
         <v>-1109</v>
